--- a/Code/Results/Cases/Case_2_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.026489737225019</v>
+        <v>1.055264595955309</v>
       </c>
       <c r="D2">
-        <v>1.039089760933206</v>
+        <v>1.055683548681641</v>
       </c>
       <c r="E2">
-        <v>1.026922122782231</v>
+        <v>1.063113272723415</v>
       </c>
       <c r="F2">
-        <v>1.03687746109623</v>
+        <v>1.071938796125796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053645021713417</v>
+        <v>1.048095089550095</v>
       </c>
       <c r="J2">
-        <v>1.04790601570777</v>
+        <v>1.060272364735297</v>
       </c>
       <c r="K2">
-        <v>1.050030105204777</v>
+        <v>1.058423331897787</v>
       </c>
       <c r="L2">
-        <v>1.038018710654725</v>
+        <v>1.065832791197818</v>
       </c>
       <c r="M2">
-        <v>1.047845872644134</v>
+        <v>1.074634637540979</v>
       </c>
       <c r="N2">
-        <v>1.049394162446575</v>
+        <v>1.061778073108161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.032471554896414</v>
+        <v>1.056466819009624</v>
       </c>
       <c r="D3">
-        <v>1.043707470911481</v>
+        <v>1.05662280147425</v>
       </c>
       <c r="E3">
-        <v>1.032482939892043</v>
+        <v>1.064338039388658</v>
       </c>
       <c r="F3">
-        <v>1.042759045506493</v>
+        <v>1.073223380816733</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055854431315366</v>
+        <v>1.04847273752535</v>
       </c>
       <c r="J3">
-        <v>1.052114520078937</v>
+        <v>1.061124975678202</v>
       </c>
       <c r="K3">
-        <v>1.053810057934746</v>
+        <v>1.059175753900822</v>
       </c>
       <c r="L3">
-        <v>1.042716403811202</v>
+        <v>1.066871476469536</v>
       </c>
       <c r="M3">
-        <v>1.052872556453565</v>
+        <v>1.075734717028411</v>
       </c>
       <c r="N3">
-        <v>1.053608643376672</v>
+        <v>1.062631894856401</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03624341088139</v>
+        <v>1.057244191690191</v>
       </c>
       <c r="D4">
-        <v>1.046621543948086</v>
+        <v>1.057230030792895</v>
       </c>
       <c r="E4">
-        <v>1.036001583498653</v>
+        <v>1.065130946822328</v>
       </c>
       <c r="F4">
-        <v>1.046478830549512</v>
+        <v>1.074054927050838</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057237715355082</v>
+        <v>1.048715650953296</v>
       </c>
       <c r="J4">
-        <v>1.054763345951464</v>
+        <v>1.061675585702415</v>
       </c>
       <c r="K4">
-        <v>1.056188056261442</v>
+        <v>1.059661466467438</v>
       </c>
       <c r="L4">
-        <v>1.045684082447088</v>
+        <v>1.067543407872147</v>
       </c>
       <c r="M4">
-        <v>1.056046882382699</v>
+        <v>1.076446316769421</v>
       </c>
       <c r="N4">
-        <v>1.056261230885762</v>
+        <v>1.063183286810004</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037806523261232</v>
+        <v>1.057570870681871</v>
       </c>
       <c r="D5">
-        <v>1.047829677376952</v>
+        <v>1.057485184161318</v>
       </c>
       <c r="E5">
-        <v>1.037462642089707</v>
+        <v>1.065464382935604</v>
       </c>
       <c r="F5">
-        <v>1.048022985054648</v>
+        <v>1.074404590964825</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057808557030106</v>
+        <v>1.048817425265145</v>
       </c>
       <c r="J5">
-        <v>1.055859848498334</v>
+        <v>1.061906803481513</v>
       </c>
       <c r="K5">
-        <v>1.057172171502093</v>
+        <v>1.059865384687535</v>
       </c>
       <c r="L5">
-        <v>1.046915203376342</v>
+        <v>1.067825849286299</v>
       </c>
       <c r="M5">
-        <v>1.057363452102872</v>
+        <v>1.076745421052916</v>
       </c>
       <c r="N5">
-        <v>1.057359290592019</v>
+        <v>1.06341483294487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038067682699664</v>
+        <v>1.057625714052685</v>
       </c>
       <c r="D6">
-        <v>1.048031555592005</v>
+        <v>1.057528018186095</v>
       </c>
       <c r="E6">
-        <v>1.037706918534126</v>
+        <v>1.065520374112555</v>
       </c>
       <c r="F6">
-        <v>1.048281129826116</v>
+        <v>1.074463305931342</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057903788238745</v>
+        <v>1.048834493320429</v>
       </c>
       <c r="J6">
-        <v>1.056042976012814</v>
+        <v>1.061945610835258</v>
       </c>
       <c r="K6">
-        <v>1.057336512550119</v>
+        <v>1.059899607340072</v>
       </c>
       <c r="L6">
-        <v>1.047120968031972</v>
+        <v>1.067873270226694</v>
       </c>
       <c r="M6">
-        <v>1.057583482219967</v>
+        <v>1.076795638963167</v>
       </c>
       <c r="N6">
-        <v>1.057542678168575</v>
+        <v>1.063453695409508</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036264384607256</v>
+        <v>1.057248557292921</v>
       </c>
       <c r="D7">
-        <v>1.046637752706371</v>
+        <v>1.05723344065783</v>
       </c>
       <c r="E7">
-        <v>1.036021176554297</v>
+        <v>1.065135401825456</v>
       </c>
       <c r="F7">
-        <v>1.046499539597442</v>
+        <v>1.07405959895306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057245384460039</v>
+        <v>1.048717012227297</v>
       </c>
       <c r="J7">
-        <v>1.054778063581052</v>
+        <v>1.061678676260392</v>
       </c>
       <c r="K7">
-        <v>1.056201266499243</v>
+        <v>1.059664192313197</v>
       </c>
       <c r="L7">
-        <v>1.045700596579351</v>
+        <v>1.067547182017693</v>
       </c>
       <c r="M7">
-        <v>1.056064543803876</v>
+        <v>1.076450313618696</v>
       </c>
       <c r="N7">
-        <v>1.056275969416072</v>
+        <v>1.063186381756928</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.028532442400427</v>
+        <v>1.055671007270701</v>
       </c>
       <c r="D8">
-        <v>1.040666103747885</v>
+        <v>1.056001083947161</v>
       </c>
       <c r="E8">
-        <v>1.028818446793805</v>
+        <v>1.063527106246172</v>
       </c>
       <c r="F8">
-        <v>1.038883563594765</v>
+        <v>1.072372859519089</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054401552461531</v>
+        <v>1.048223018091756</v>
       </c>
       <c r="J8">
-        <v>1.049344155629429</v>
+        <v>1.060560734345998</v>
       </c>
       <c r="K8">
-        <v>1.05132202287216</v>
+        <v>1.058677856213756</v>
       </c>
       <c r="L8">
-        <v>1.039621705986855</v>
+        <v>1.066183855338001</v>
       </c>
       <c r="M8">
-        <v>1.049561383509731</v>
+        <v>1.075006462203061</v>
       </c>
       <c r="N8">
-        <v>1.050834344691879</v>
+        <v>1.062066852236785</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.014099022920792</v>
+        <v>1.052886880210853</v>
       </c>
       <c r="D9">
-        <v>1.029541039774573</v>
+        <v>1.053825406588282</v>
       </c>
       <c r="E9">
-        <v>1.015474565407934</v>
+        <v>1.060696082297388</v>
       </c>
       <c r="F9">
-        <v>1.024758814876227</v>
+        <v>1.069403081855965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049015621425999</v>
+        <v>1.047341401973651</v>
       </c>
       <c r="J9">
-        <v>1.039163546938636</v>
+        <v>1.058582396158091</v>
       </c>
       <c r="K9">
-        <v>1.042172349968151</v>
+        <v>1.056930911410704</v>
       </c>
       <c r="L9">
-        <v>1.028321470351232</v>
+        <v>1.063780148369736</v>
       </c>
       <c r="M9">
-        <v>1.037462574813864</v>
+        <v>1.072460411058442</v>
       </c>
       <c r="N9">
-        <v>1.040639278369014</v>
+        <v>1.060085704581734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003852997021868</v>
+        <v>1.051027773533126</v>
       </c>
       <c r="D10">
-        <v>1.021663929718396</v>
+        <v>1.052372123860624</v>
       </c>
       <c r="E10">
-        <v>1.006075939732436</v>
+        <v>1.058810639457981</v>
       </c>
       <c r="F10">
-        <v>1.014798751478756</v>
+        <v>1.067424770577315</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045142860254235</v>
+        <v>1.046746128461133</v>
       </c>
       <c r="J10">
-        <v>1.031914574837499</v>
+        <v>1.057257779517197</v>
       </c>
       <c r="K10">
-        <v>1.035652750063623</v>
+        <v>1.055760228823582</v>
       </c>
       <c r="L10">
-        <v>1.020336350985476</v>
+        <v>1.06217667022167</v>
       </c>
       <c r="M10">
-        <v>1.02890585359259</v>
+        <v>1.070761725581489</v>
       </c>
       <c r="N10">
-        <v>1.033380011896024</v>
+        <v>1.058759206833274</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9992482256570877</v>
+        <v>1.050222010557074</v>
       </c>
       <c r="D11">
-        <v>1.018129908272409</v>
+        <v>1.051742148570754</v>
       </c>
       <c r="E11">
-        <v>1.001870812981067</v>
+        <v>1.057994649020165</v>
       </c>
       <c r="F11">
-        <v>1.010339439798027</v>
+        <v>1.066568477461776</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043391393154831</v>
+        <v>1.04648657265621</v>
       </c>
       <c r="J11">
-        <v>1.028652312798328</v>
+        <v>1.056682827579849</v>
       </c>
       <c r="K11">
-        <v>1.032717832982884</v>
+        <v>1.055251857898702</v>
       </c>
       <c r="L11">
-        <v>1.016757534538741</v>
+        <v>1.061482085135707</v>
       </c>
       <c r="M11">
-        <v>1.025068968501516</v>
+        <v>1.070025838786242</v>
       </c>
       <c r="N11">
-        <v>1.030113117070571</v>
+        <v>1.058183438398227</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975106163593539</v>
+        <v>1.049922597604771</v>
       </c>
       <c r="D12">
-        <v>1.016797382687659</v>
+        <v>1.051508041883669</v>
       </c>
       <c r="E12">
-        <v>1.000286953677697</v>
+        <v>1.05769161450686</v>
       </c>
       <c r="F12">
-        <v>1.008659367439774</v>
+        <v>1.066250458966814</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042728898733952</v>
+        <v>1.046389890955547</v>
       </c>
       <c r="J12">
-        <v>1.027420706317347</v>
+        <v>1.056469055006838</v>
       </c>
       <c r="K12">
-        <v>1.03160969500468</v>
+        <v>1.055062805765875</v>
       </c>
       <c r="L12">
-        <v>1.015408658172154</v>
+        <v>1.061224042947681</v>
       </c>
       <c r="M12">
-        <v>1.023622527008697</v>
+        <v>1.069752443656294</v>
       </c>
       <c r="N12">
-        <v>1.02887976156712</v>
+        <v>1.057969362243642</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9978846030352376</v>
+        <v>1.049986828027263</v>
       </c>
       <c r="D13">
-        <v>1.017084134155046</v>
+        <v>1.051558263375375</v>
       </c>
       <c r="E13">
-        <v>1.000627713679809</v>
+        <v>1.057756613729435</v>
       </c>
       <c r="F13">
-        <v>1.009020849100057</v>
+        <v>1.066318672931528</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042871557917919</v>
+        <v>1.046410641792025</v>
       </c>
       <c r="J13">
-        <v>1.027685811248103</v>
+        <v>1.0565149194744</v>
       </c>
       <c r="K13">
-        <v>1.031848228011456</v>
+        <v>1.055103368094676</v>
       </c>
       <c r="L13">
-        <v>1.01569890403252</v>
+        <v>1.061279395822459</v>
       </c>
       <c r="M13">
-        <v>1.023933780230918</v>
+        <v>1.069811090319294</v>
       </c>
       <c r="N13">
-        <v>1.029145242977286</v>
+        <v>1.058015291844009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9991051608775374</v>
+        <v>1.0501972633866</v>
       </c>
       <c r="D14">
-        <v>1.018020174007616</v>
+        <v>1.051722799406304</v>
       </c>
       <c r="E14">
-        <v>1.001740346606198</v>
+        <v>1.057969598868175</v>
       </c>
       <c r="F14">
-        <v>1.01020105790959</v>
+        <v>1.066542189011576</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043336878794481</v>
+        <v>1.046478586452739</v>
       </c>
       <c r="J14">
-        <v>1.02855092098177</v>
+        <v>1.056665161363426</v>
       </c>
       <c r="K14">
-        <v>1.032626607896403</v>
+        <v>1.055236235298239</v>
       </c>
       <c r="L14">
-        <v>1.016646442883767</v>
+        <v>1.06146075616383</v>
       </c>
       <c r="M14">
-        <v>1.024949847643773</v>
+        <v>1.070003240974081</v>
       </c>
       <c r="N14">
-        <v>1.030011581266004</v>
+        <v>1.05816574709375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9998535226832832</v>
+        <v>1.050326904005168</v>
       </c>
       <c r="D15">
-        <v>1.01859422913915</v>
+        <v>1.051824161418628</v>
       </c>
       <c r="E15">
-        <v>1.002422927585912</v>
+        <v>1.058100834013295</v>
       </c>
       <c r="F15">
-        <v>1.010925032219849</v>
+        <v>1.066679910784796</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043621975763386</v>
+        <v>1.046520413447279</v>
       </c>
       <c r="J15">
-        <v>1.029081270772743</v>
+        <v>1.05675770249029</v>
       </c>
       <c r="K15">
-        <v>1.033103774074142</v>
+        <v>1.055318069898111</v>
       </c>
       <c r="L15">
-        <v>1.017227620855753</v>
+        <v>1.061572492581898</v>
       </c>
       <c r="M15">
-        <v>1.02557301832869</v>
+        <v>1.070121624111368</v>
       </c>
       <c r="N15">
-        <v>1.030542684214512</v>
+        <v>1.058258419639629</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004154897291081</v>
+        <v>1.051081233160956</v>
       </c>
       <c r="D16">
-        <v>1.021895765545898</v>
+        <v>1.052413918489717</v>
       </c>
       <c r="E16">
-        <v>1.006352038361056</v>
+        <v>1.058864802687026</v>
       </c>
       <c r="F16">
-        <v>1.015091475075275</v>
+        <v>1.067481606644474</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045257468836729</v>
+        <v>1.046763316355268</v>
       </c>
       <c r="J16">
-        <v>1.032128370931509</v>
+        <v>1.057295907861401</v>
       </c>
       <c r="K16">
-        <v>1.035845076309431</v>
+        <v>1.055793936885303</v>
       </c>
       <c r="L16">
-        <v>1.020571200562339</v>
+        <v>1.062222761717097</v>
       </c>
       <c r="M16">
-        <v>1.029157597839856</v>
+        <v>1.070810556511954</v>
       </c>
       <c r="N16">
-        <v>1.03359411160501</v>
+        <v>1.0587973893241</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006806710975226</v>
+        <v>1.051554199058673</v>
       </c>
       <c r="D17">
-        <v>1.023932856871307</v>
+        <v>1.052783670579036</v>
       </c>
       <c r="E17">
-        <v>1.008779360264791</v>
+        <v>1.059344130580011</v>
       </c>
       <c r="F17">
-        <v>1.017664613491155</v>
+        <v>1.067984575526828</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046262926296693</v>
+        <v>1.046915200786779</v>
       </c>
       <c r="J17">
-        <v>1.034005807106681</v>
+        <v>1.057633137969497</v>
       </c>
       <c r="K17">
-        <v>1.037533877405008</v>
+        <v>1.056092044335387</v>
       </c>
       <c r="L17">
-        <v>1.022635186863907</v>
+        <v>1.062630585059636</v>
       </c>
       <c r="M17">
-        <v>1.031369848340292</v>
+        <v>1.071242611740161</v>
       </c>
       <c r="N17">
-        <v>1.035474213954896</v>
+        <v>1.05913509833763</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008337382592049</v>
+        <v>1.05182999917285</v>
       </c>
       <c r="D18">
-        <v>1.025109268805628</v>
+        <v>1.052999273832547</v>
       </c>
       <c r="E18">
-        <v>1.010182217531865</v>
+        <v>1.059623754987163</v>
       </c>
       <c r="F18">
-        <v>1.019151463832671</v>
+        <v>1.068277980653182</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046842253476188</v>
+        <v>1.047003618945013</v>
       </c>
       <c r="J18">
-        <v>1.035089072210886</v>
+        <v>1.057829705159011</v>
       </c>
       <c r="K18">
-        <v>1.038508215870269</v>
+        <v>1.056265784831801</v>
       </c>
       <c r="L18">
-        <v>1.023827477168857</v>
+        <v>1.062868435750532</v>
       </c>
       <c r="M18">
-        <v>1.032647608387452</v>
+        <v>1.07149458912993</v>
       </c>
       <c r="N18">
-        <v>1.036559017419801</v>
+        <v>1.0593319446751</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008856628878749</v>
+        <v>1.051924027607804</v>
       </c>
       <c r="D19">
-        <v>1.02550843344096</v>
+        <v>1.05307277767058</v>
       </c>
       <c r="E19">
-        <v>1.010658401884669</v>
+        <v>1.059719106630384</v>
       </c>
       <c r="F19">
-        <v>1.019656111801371</v>
+        <v>1.068378029702388</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047038598970116</v>
+        <v>1.047033737857675</v>
       </c>
       <c r="J19">
-        <v>1.035456472027781</v>
+        <v>1.057896706915262</v>
       </c>
       <c r="K19">
-        <v>1.038838657048213</v>
+        <v>1.056325002060136</v>
       </c>
       <c r="L19">
-        <v>1.024232088576538</v>
+        <v>1.062949532380155</v>
       </c>
       <c r="M19">
-        <v>1.03308119486291</v>
+        <v>1.071580501357628</v>
       </c>
       <c r="N19">
-        <v>1.036926938986578</v>
+        <v>1.05939904158153</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00652387365878</v>
+        <v>1.051503461855713</v>
       </c>
       <c r="D20">
-        <v>1.023715524809696</v>
+        <v>1.052744006609144</v>
       </c>
       <c r="E20">
-        <v>1.0085202825896</v>
+        <v>1.059292699055805</v>
       </c>
       <c r="F20">
-        <v>1.017390001561499</v>
+        <v>1.067930608446824</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046155793662998</v>
+        <v>1.046898922973752</v>
       </c>
       <c r="J20">
-        <v>1.033805606804503</v>
+        <v>1.057596970185812</v>
       </c>
       <c r="K20">
-        <v>1.037353800964812</v>
+        <v>1.056060074775496</v>
       </c>
       <c r="L20">
-        <v>1.022414949533761</v>
+        <v>1.06258683215525</v>
       </c>
       <c r="M20">
-        <v>1.031133808989666</v>
+        <v>1.07119625974542</v>
       </c>
       <c r="N20">
-        <v>1.035273729345325</v>
+        <v>1.059098879191544</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9987465041059724</v>
+        <v>1.050135298663225</v>
       </c>
       <c r="D21">
-        <v>1.017745092390601</v>
+        <v>1.051674350579299</v>
       </c>
       <c r="E21">
-        <v>1.001413321254655</v>
+        <v>1.057906878396677</v>
       </c>
       <c r="F21">
-        <v>1.009854183903393</v>
+        <v>1.066476367822517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043200188659125</v>
+        <v>1.046458585935235</v>
       </c>
       <c r="J21">
-        <v>1.028296727115174</v>
+        <v>1.05662092467896</v>
       </c>
       <c r="K21">
-        <v>1.032397900709402</v>
+        <v>1.055197115318711</v>
       </c>
       <c r="L21">
-        <v>1.016367967211552</v>
+        <v>1.061407351249243</v>
       </c>
       <c r="M21">
-        <v>1.024651240166844</v>
+        <v>1.06994665890416</v>
       </c>
       <c r="N21">
-        <v>1.029757026414961</v>
+        <v>1.058121447588118</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9936981349828622</v>
+        <v>1.049274403493517</v>
       </c>
       <c r="D22">
-        <v>1.013875742670222</v>
+        <v>1.051001202415065</v>
       </c>
       <c r="E22">
-        <v>0.9968173804785554</v>
+        <v>1.057035907831849</v>
       </c>
       <c r="F22">
-        <v>1.004978127884181</v>
+        <v>1.065562299102899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041272495257251</v>
+        <v>1.0461801594988</v>
       </c>
       <c r="J22">
-        <v>1.024717436916563</v>
+        <v>1.056006031226071</v>
       </c>
       <c r="K22">
-        <v>1.029177240560223</v>
+        <v>1.054653261735415</v>
       </c>
       <c r="L22">
-        <v>1.012452150440148</v>
+        <v>1.060665518697709</v>
       </c>
       <c r="M22">
-        <v>1.020451607968422</v>
+        <v>1.069160671682197</v>
       </c>
       <c r="N22">
-        <v>1.026172653213717</v>
+        <v>1.057505680915996</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9963900841395724</v>
+        <v>1.049730845422302</v>
       </c>
       <c r="D23">
-        <v>1.01593838460287</v>
+        <v>1.051358109600801</v>
       </c>
       <c r="E23">
-        <v>0.9992664159577788</v>
+        <v>1.057497593393822</v>
       </c>
       <c r="F23">
-        <v>1.007576699055564</v>
+        <v>1.066046839459527</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042301240056131</v>
+        <v>1.046327907658462</v>
       </c>
       <c r="J23">
-        <v>1.026626322665332</v>
+        <v>1.056332113663102</v>
       </c>
       <c r="K23">
-        <v>1.030894918623497</v>
+        <v>1.054941690345303</v>
       </c>
       <c r="L23">
-        <v>1.014539270502544</v>
+        <v>1.061058802174035</v>
       </c>
       <c r="M23">
-        <v>1.022690170154776</v>
+        <v>1.069577368843057</v>
       </c>
       <c r="N23">
-        <v>1.028084249799202</v>
+        <v>1.057832226427491</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006651725236884</v>
+        <v>1.051526388038971</v>
       </c>
       <c r="D24">
-        <v>1.023813764146922</v>
+        <v>1.052761929256557</v>
       </c>
       <c r="E24">
-        <v>1.008637388571517</v>
+        <v>1.059315938622476</v>
       </c>
       <c r="F24">
-        <v>1.0175141300678</v>
+        <v>1.067954993748794</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046204224297218</v>
+        <v>1.046906278752771</v>
       </c>
       <c r="J24">
-        <v>1.033896105107708</v>
+        <v>1.05761331326272</v>
       </c>
       <c r="K24">
-        <v>1.037435202769442</v>
+        <v>1.05607452087776</v>
       </c>
       <c r="L24">
-        <v>1.022514501045957</v>
+        <v>1.062606602289058</v>
       </c>
       <c r="M24">
-        <v>1.031240503867805</v>
+        <v>1.071217204318989</v>
       </c>
       <c r="N24">
-        <v>1.035364356166501</v>
+        <v>1.059115245477495</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.017934042579933</v>
+        <v>1.053607165946388</v>
       </c>
       <c r="D25">
-        <v>1.032493919772913</v>
+        <v>1.05438836521949</v>
       </c>
       <c r="E25">
-        <v>1.019007813920943</v>
+        <v>1.061427625785764</v>
       </c>
       <c r="F25">
-        <v>1.028500707273997</v>
+        <v>1.070170560085693</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050455366200984</v>
+        <v>1.047570644850865</v>
       </c>
       <c r="J25">
-        <v>1.041872569635543</v>
+        <v>1.059094846430591</v>
       </c>
       <c r="K25">
-        <v>1.044607913605416</v>
+        <v>1.057383600014091</v>
       </c>
       <c r="L25">
-        <v>1.031318053658056</v>
+        <v>1.064401734477293</v>
       </c>
       <c r="M25">
-        <v>1.04067212948169</v>
+        <v>1.073118850729386</v>
       </c>
       <c r="N25">
-        <v>1.043352148188879</v>
+        <v>1.060598882592399</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055264595955309</v>
+        <v>1.026489737225019</v>
       </c>
       <c r="D2">
-        <v>1.055683548681641</v>
+        <v>1.039089760933206</v>
       </c>
       <c r="E2">
-        <v>1.063113272723415</v>
+        <v>1.026922122782231</v>
       </c>
       <c r="F2">
-        <v>1.071938796125796</v>
+        <v>1.036877461096231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048095089550095</v>
+        <v>1.053645021713418</v>
       </c>
       <c r="J2">
-        <v>1.060272364735297</v>
+        <v>1.04790601570777</v>
       </c>
       <c r="K2">
-        <v>1.058423331897787</v>
+        <v>1.050030105204777</v>
       </c>
       <c r="L2">
-        <v>1.065832791197818</v>
+        <v>1.038018710654725</v>
       </c>
       <c r="M2">
-        <v>1.074634637540979</v>
+        <v>1.047845872644134</v>
       </c>
       <c r="N2">
-        <v>1.061778073108161</v>
+        <v>1.049394162446575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056466819009624</v>
+        <v>1.032471554896413</v>
       </c>
       <c r="D3">
-        <v>1.05662280147425</v>
+        <v>1.04370747091148</v>
       </c>
       <c r="E3">
-        <v>1.064338039388658</v>
+        <v>1.032482939892043</v>
       </c>
       <c r="F3">
-        <v>1.073223380816733</v>
+        <v>1.042759045506493</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04847273752535</v>
+        <v>1.055854431315366</v>
       </c>
       <c r="J3">
-        <v>1.061124975678202</v>
+        <v>1.052114520078937</v>
       </c>
       <c r="K3">
-        <v>1.059175753900822</v>
+        <v>1.053810057934745</v>
       </c>
       <c r="L3">
-        <v>1.066871476469536</v>
+        <v>1.042716403811202</v>
       </c>
       <c r="M3">
-        <v>1.075734717028411</v>
+        <v>1.052872556453565</v>
       </c>
       <c r="N3">
-        <v>1.062631894856401</v>
+        <v>1.053608643376671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057244191690191</v>
+        <v>1.03624341088139</v>
       </c>
       <c r="D4">
-        <v>1.057230030792895</v>
+        <v>1.046621543948086</v>
       </c>
       <c r="E4">
-        <v>1.065130946822328</v>
+        <v>1.036001583498652</v>
       </c>
       <c r="F4">
-        <v>1.074054927050838</v>
+        <v>1.046478830549512</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048715650953296</v>
+        <v>1.057237715355082</v>
       </c>
       <c r="J4">
-        <v>1.061675585702415</v>
+        <v>1.054763345951464</v>
       </c>
       <c r="K4">
-        <v>1.059661466467438</v>
+        <v>1.056188056261441</v>
       </c>
       <c r="L4">
-        <v>1.067543407872147</v>
+        <v>1.045684082447088</v>
       </c>
       <c r="M4">
-        <v>1.076446316769421</v>
+        <v>1.056046882382699</v>
       </c>
       <c r="N4">
-        <v>1.063183286810004</v>
+        <v>1.056261230885762</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057570870681871</v>
+        <v>1.037806523261231</v>
       </c>
       <c r="D5">
-        <v>1.057485184161318</v>
+        <v>1.04782967737695</v>
       </c>
       <c r="E5">
-        <v>1.065464382935604</v>
+        <v>1.037462642089707</v>
       </c>
       <c r="F5">
-        <v>1.074404590964825</v>
+        <v>1.048022985054647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048817425265145</v>
+        <v>1.057808557030105</v>
       </c>
       <c r="J5">
-        <v>1.061906803481513</v>
+        <v>1.055859848498332</v>
       </c>
       <c r="K5">
-        <v>1.059865384687535</v>
+        <v>1.057172171502092</v>
       </c>
       <c r="L5">
-        <v>1.067825849286299</v>
+        <v>1.046915203376342</v>
       </c>
       <c r="M5">
-        <v>1.076745421052916</v>
+        <v>1.057363452102871</v>
       </c>
       <c r="N5">
-        <v>1.06341483294487</v>
+        <v>1.057359290592017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057625714052685</v>
+        <v>1.038067682699665</v>
       </c>
       <c r="D6">
-        <v>1.057528018186095</v>
+        <v>1.048031555592005</v>
       </c>
       <c r="E6">
-        <v>1.065520374112555</v>
+        <v>1.037706918534127</v>
       </c>
       <c r="F6">
-        <v>1.074463305931342</v>
+        <v>1.048281129826116</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048834493320429</v>
+        <v>1.057903788238746</v>
       </c>
       <c r="J6">
-        <v>1.061945610835258</v>
+        <v>1.056042976012814</v>
       </c>
       <c r="K6">
-        <v>1.059899607340072</v>
+        <v>1.057336512550119</v>
       </c>
       <c r="L6">
-        <v>1.067873270226694</v>
+        <v>1.047120968031972</v>
       </c>
       <c r="M6">
-        <v>1.076795638963167</v>
+        <v>1.057583482219967</v>
       </c>
       <c r="N6">
-        <v>1.063453695409508</v>
+        <v>1.057542678168575</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057248557292921</v>
+        <v>1.036264384607257</v>
       </c>
       <c r="D7">
-        <v>1.05723344065783</v>
+        <v>1.046637752706372</v>
       </c>
       <c r="E7">
-        <v>1.065135401825456</v>
+        <v>1.036021176554298</v>
       </c>
       <c r="F7">
-        <v>1.07405959895306</v>
+        <v>1.046499539597443</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048717012227297</v>
+        <v>1.05724538446004</v>
       </c>
       <c r="J7">
-        <v>1.061678676260392</v>
+        <v>1.054778063581053</v>
       </c>
       <c r="K7">
-        <v>1.059664192313197</v>
+        <v>1.056201266499243</v>
       </c>
       <c r="L7">
-        <v>1.067547182017693</v>
+        <v>1.045700596579351</v>
       </c>
       <c r="M7">
-        <v>1.076450313618696</v>
+        <v>1.056064543803876</v>
       </c>
       <c r="N7">
-        <v>1.063186381756928</v>
+        <v>1.056275969416073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055671007270701</v>
+        <v>1.028532442400428</v>
       </c>
       <c r="D8">
-        <v>1.056001083947161</v>
+        <v>1.040666103747886</v>
       </c>
       <c r="E8">
-        <v>1.063527106246172</v>
+        <v>1.028818446793805</v>
       </c>
       <c r="F8">
-        <v>1.072372859519089</v>
+        <v>1.038883563594766</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048223018091756</v>
+        <v>1.054401552461531</v>
       </c>
       <c r="J8">
-        <v>1.060560734345998</v>
+        <v>1.04934415562943</v>
       </c>
       <c r="K8">
-        <v>1.058677856213756</v>
+        <v>1.051322022872161</v>
       </c>
       <c r="L8">
-        <v>1.066183855338001</v>
+        <v>1.039621705986855</v>
       </c>
       <c r="M8">
-        <v>1.075006462203061</v>
+        <v>1.049561383509731</v>
       </c>
       <c r="N8">
-        <v>1.062066852236785</v>
+        <v>1.05083434469188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052886880210853</v>
+        <v>1.014099022920791</v>
       </c>
       <c r="D9">
-        <v>1.053825406588282</v>
+        <v>1.029541039774573</v>
       </c>
       <c r="E9">
-        <v>1.060696082297388</v>
+        <v>1.015474565407933</v>
       </c>
       <c r="F9">
-        <v>1.069403081855965</v>
+        <v>1.024758814876227</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047341401973651</v>
+        <v>1.049015621425998</v>
       </c>
       <c r="J9">
-        <v>1.058582396158091</v>
+        <v>1.039163546938636</v>
       </c>
       <c r="K9">
-        <v>1.056930911410704</v>
+        <v>1.04217234996815</v>
       </c>
       <c r="L9">
-        <v>1.063780148369736</v>
+        <v>1.028321470351232</v>
       </c>
       <c r="M9">
-        <v>1.072460411058442</v>
+        <v>1.037462574813863</v>
       </c>
       <c r="N9">
-        <v>1.060085704581734</v>
+        <v>1.040639278369013</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051027773533126</v>
+        <v>1.003852997021868</v>
       </c>
       <c r="D10">
-        <v>1.052372123860624</v>
+        <v>1.021663929718396</v>
       </c>
       <c r="E10">
-        <v>1.058810639457981</v>
+        <v>1.006075939732435</v>
       </c>
       <c r="F10">
-        <v>1.067424770577315</v>
+        <v>1.014798751478756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046746128461133</v>
+        <v>1.045142860254235</v>
       </c>
       <c r="J10">
-        <v>1.057257779517197</v>
+        <v>1.031914574837499</v>
       </c>
       <c r="K10">
-        <v>1.055760228823582</v>
+        <v>1.035652750063623</v>
       </c>
       <c r="L10">
-        <v>1.06217667022167</v>
+        <v>1.020336350985476</v>
       </c>
       <c r="M10">
-        <v>1.070761725581489</v>
+        <v>1.028905853592589</v>
       </c>
       <c r="N10">
-        <v>1.058759206833274</v>
+        <v>1.033380011896024</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050222010557074</v>
+        <v>0.9992482256570884</v>
       </c>
       <c r="D11">
-        <v>1.051742148570754</v>
+        <v>1.018129908272409</v>
       </c>
       <c r="E11">
-        <v>1.057994649020165</v>
+        <v>1.001870812981067</v>
       </c>
       <c r="F11">
-        <v>1.066568477461776</v>
+        <v>1.010339439798027</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04648657265621</v>
+        <v>1.043391393154831</v>
       </c>
       <c r="J11">
-        <v>1.056682827579849</v>
+        <v>1.028652312798329</v>
       </c>
       <c r="K11">
-        <v>1.055251857898702</v>
+        <v>1.032717832982885</v>
       </c>
       <c r="L11">
-        <v>1.061482085135707</v>
+        <v>1.016757534538742</v>
       </c>
       <c r="M11">
-        <v>1.070025838786242</v>
+        <v>1.025068968501516</v>
       </c>
       <c r="N11">
-        <v>1.058183438398227</v>
+        <v>1.030113117070572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049922597604771</v>
+        <v>0.9975106163593537</v>
       </c>
       <c r="D12">
-        <v>1.051508041883669</v>
+        <v>1.016797382687659</v>
       </c>
       <c r="E12">
-        <v>1.05769161450686</v>
+        <v>1.000286953677696</v>
       </c>
       <c r="F12">
-        <v>1.066250458966814</v>
+        <v>1.008659367439774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046389890955547</v>
+        <v>1.042728898733952</v>
       </c>
       <c r="J12">
-        <v>1.056469055006838</v>
+        <v>1.027420706317347</v>
       </c>
       <c r="K12">
-        <v>1.055062805765875</v>
+        <v>1.03160969500468</v>
       </c>
       <c r="L12">
-        <v>1.061224042947681</v>
+        <v>1.015408658172153</v>
       </c>
       <c r="M12">
-        <v>1.069752443656294</v>
+        <v>1.023622527008696</v>
       </c>
       <c r="N12">
-        <v>1.057969362243642</v>
+        <v>1.02887976156712</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049986828027263</v>
+        <v>0.9978846030352376</v>
       </c>
       <c r="D13">
-        <v>1.051558263375375</v>
+        <v>1.017084134155046</v>
       </c>
       <c r="E13">
-        <v>1.057756613729435</v>
+        <v>1.000627713679809</v>
       </c>
       <c r="F13">
-        <v>1.066318672931528</v>
+        <v>1.009020849100057</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046410641792025</v>
+        <v>1.042871557917919</v>
       </c>
       <c r="J13">
-        <v>1.0565149194744</v>
+        <v>1.027685811248103</v>
       </c>
       <c r="K13">
-        <v>1.055103368094676</v>
+        <v>1.031848228011456</v>
       </c>
       <c r="L13">
-        <v>1.061279395822459</v>
+        <v>1.015698904032519</v>
       </c>
       <c r="M13">
-        <v>1.069811090319294</v>
+        <v>1.023933780230918</v>
       </c>
       <c r="N13">
-        <v>1.058015291844009</v>
+        <v>1.029145242977285</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.0501972633866</v>
+        <v>0.9991051608775385</v>
       </c>
       <c r="D14">
-        <v>1.051722799406304</v>
+        <v>1.018020174007617</v>
       </c>
       <c r="E14">
-        <v>1.057969598868175</v>
+        <v>1.001740346606199</v>
       </c>
       <c r="F14">
-        <v>1.066542189011576</v>
+        <v>1.010201057909591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046478586452739</v>
+        <v>1.043336878794482</v>
       </c>
       <c r="J14">
-        <v>1.056665161363426</v>
+        <v>1.028550920981772</v>
       </c>
       <c r="K14">
-        <v>1.055236235298239</v>
+        <v>1.032626607896404</v>
       </c>
       <c r="L14">
-        <v>1.06146075616383</v>
+        <v>1.016646442883768</v>
       </c>
       <c r="M14">
-        <v>1.070003240974081</v>
+        <v>1.024949847643774</v>
       </c>
       <c r="N14">
-        <v>1.05816574709375</v>
+        <v>1.030011581266005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050326904005168</v>
+        <v>0.9998535226832822</v>
       </c>
       <c r="D15">
-        <v>1.051824161418628</v>
+        <v>1.018594229139149</v>
       </c>
       <c r="E15">
-        <v>1.058100834013295</v>
+        <v>1.002422927585911</v>
       </c>
       <c r="F15">
-        <v>1.066679910784796</v>
+        <v>1.010925032219848</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046520413447279</v>
+        <v>1.043621975763386</v>
       </c>
       <c r="J15">
-        <v>1.05675770249029</v>
+        <v>1.029081270772742</v>
       </c>
       <c r="K15">
-        <v>1.055318069898111</v>
+        <v>1.033103774074141</v>
       </c>
       <c r="L15">
-        <v>1.061572492581898</v>
+        <v>1.017227620855752</v>
       </c>
       <c r="M15">
-        <v>1.070121624111368</v>
+        <v>1.02557301832869</v>
       </c>
       <c r="N15">
-        <v>1.058258419639629</v>
+        <v>1.030542684214511</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051081233160956</v>
+        <v>1.004154897291081</v>
       </c>
       <c r="D16">
-        <v>1.052413918489717</v>
+        <v>1.021895765545898</v>
       </c>
       <c r="E16">
-        <v>1.058864802687026</v>
+        <v>1.006352038361056</v>
       </c>
       <c r="F16">
-        <v>1.067481606644474</v>
+        <v>1.015091475075275</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046763316355268</v>
+        <v>1.045257468836729</v>
       </c>
       <c r="J16">
-        <v>1.057295907861401</v>
+        <v>1.032128370931509</v>
       </c>
       <c r="K16">
-        <v>1.055793936885303</v>
+        <v>1.03584507630943</v>
       </c>
       <c r="L16">
-        <v>1.062222761717097</v>
+        <v>1.020571200562339</v>
       </c>
       <c r="M16">
-        <v>1.070810556511954</v>
+        <v>1.029157597839856</v>
       </c>
       <c r="N16">
-        <v>1.0587973893241</v>
+        <v>1.03359411160501</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051554199058673</v>
+        <v>1.006806710975226</v>
       </c>
       <c r="D17">
-        <v>1.052783670579036</v>
+        <v>1.023932856871307</v>
       </c>
       <c r="E17">
-        <v>1.059344130580011</v>
+        <v>1.008779360264791</v>
       </c>
       <c r="F17">
-        <v>1.067984575526828</v>
+        <v>1.017664613491155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046915200786779</v>
+        <v>1.046262926296693</v>
       </c>
       <c r="J17">
-        <v>1.057633137969497</v>
+        <v>1.034005807106681</v>
       </c>
       <c r="K17">
-        <v>1.056092044335387</v>
+        <v>1.037533877405008</v>
       </c>
       <c r="L17">
-        <v>1.062630585059636</v>
+        <v>1.022635186863907</v>
       </c>
       <c r="M17">
-        <v>1.071242611740161</v>
+        <v>1.031369848340292</v>
       </c>
       <c r="N17">
-        <v>1.05913509833763</v>
+        <v>1.035474213954896</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05182999917285</v>
+        <v>1.008337382592049</v>
       </c>
       <c r="D18">
-        <v>1.052999273832547</v>
+        <v>1.025109268805628</v>
       </c>
       <c r="E18">
-        <v>1.059623754987163</v>
+        <v>1.010182217531865</v>
       </c>
       <c r="F18">
-        <v>1.068277980653182</v>
+        <v>1.019151463832671</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047003618945013</v>
+        <v>1.046842253476188</v>
       </c>
       <c r="J18">
-        <v>1.057829705159011</v>
+        <v>1.035089072210886</v>
       </c>
       <c r="K18">
-        <v>1.056265784831801</v>
+        <v>1.038508215870268</v>
       </c>
       <c r="L18">
-        <v>1.062868435750532</v>
+        <v>1.023827477168857</v>
       </c>
       <c r="M18">
-        <v>1.07149458912993</v>
+        <v>1.032647608387453</v>
       </c>
       <c r="N18">
-        <v>1.0593319446751</v>
+        <v>1.036559017419801</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051924027607804</v>
+        <v>1.00885662887875</v>
       </c>
       <c r="D19">
-        <v>1.05307277767058</v>
+        <v>1.025508433440961</v>
       </c>
       <c r="E19">
-        <v>1.059719106630384</v>
+        <v>1.01065840188467</v>
       </c>
       <c r="F19">
-        <v>1.068378029702388</v>
+        <v>1.019656111801372</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047033737857675</v>
+        <v>1.047038598970116</v>
       </c>
       <c r="J19">
-        <v>1.057896706915262</v>
+        <v>1.035456472027782</v>
       </c>
       <c r="K19">
-        <v>1.056325002060136</v>
+        <v>1.038838657048214</v>
       </c>
       <c r="L19">
-        <v>1.062949532380155</v>
+        <v>1.024232088576539</v>
       </c>
       <c r="M19">
-        <v>1.071580501357628</v>
+        <v>1.033081194862911</v>
       </c>
       <c r="N19">
-        <v>1.05939904158153</v>
+        <v>1.036926938986579</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051503461855713</v>
+        <v>1.006523873658782</v>
       </c>
       <c r="D20">
-        <v>1.052744006609144</v>
+        <v>1.023715524809698</v>
       </c>
       <c r="E20">
-        <v>1.059292699055805</v>
+        <v>1.008520282589601</v>
       </c>
       <c r="F20">
-        <v>1.067930608446824</v>
+        <v>1.0173900015615</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046898922973752</v>
+        <v>1.046155793662999</v>
       </c>
       <c r="J20">
-        <v>1.057596970185812</v>
+        <v>1.033805606804504</v>
       </c>
       <c r="K20">
-        <v>1.056060074775496</v>
+        <v>1.037353800964815</v>
       </c>
       <c r="L20">
-        <v>1.06258683215525</v>
+        <v>1.022414949533761</v>
       </c>
       <c r="M20">
-        <v>1.07119625974542</v>
+        <v>1.031133808989667</v>
       </c>
       <c r="N20">
-        <v>1.059098879191544</v>
+        <v>1.035273729345327</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050135298663225</v>
+        <v>0.9987465041059737</v>
       </c>
       <c r="D21">
-        <v>1.051674350579299</v>
+        <v>1.017745092390602</v>
       </c>
       <c r="E21">
-        <v>1.057906878396677</v>
+        <v>1.001413321254655</v>
       </c>
       <c r="F21">
-        <v>1.066476367822517</v>
+        <v>1.009854183903393</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046458585935235</v>
+        <v>1.043200188659125</v>
       </c>
       <c r="J21">
-        <v>1.05662092467896</v>
+        <v>1.028296727115175</v>
       </c>
       <c r="K21">
-        <v>1.055197115318711</v>
+        <v>1.032397900709403</v>
       </c>
       <c r="L21">
-        <v>1.061407351249243</v>
+        <v>1.016367967211552</v>
       </c>
       <c r="M21">
-        <v>1.06994665890416</v>
+        <v>1.024651240166845</v>
       </c>
       <c r="N21">
-        <v>1.058121447588118</v>
+        <v>1.029757026414962</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049274403493517</v>
+        <v>0.9936981349828634</v>
       </c>
       <c r="D22">
-        <v>1.051001202415065</v>
+        <v>1.013875742670223</v>
       </c>
       <c r="E22">
-        <v>1.057035907831849</v>
+        <v>0.9968173804785577</v>
       </c>
       <c r="F22">
-        <v>1.065562299102899</v>
+        <v>1.004978127884184</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0461801594988</v>
+        <v>1.041272495257251</v>
       </c>
       <c r="J22">
-        <v>1.056006031226071</v>
+        <v>1.024717436916564</v>
       </c>
       <c r="K22">
-        <v>1.054653261735415</v>
+        <v>1.029177240560224</v>
       </c>
       <c r="L22">
-        <v>1.060665518697709</v>
+        <v>1.012452150440151</v>
       </c>
       <c r="M22">
-        <v>1.069160671682197</v>
+        <v>1.020451607968424</v>
       </c>
       <c r="N22">
-        <v>1.057505680915996</v>
+        <v>1.026172653213718</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049730845422302</v>
+        <v>0.9963900841395721</v>
       </c>
       <c r="D23">
-        <v>1.051358109600801</v>
+        <v>1.01593838460287</v>
       </c>
       <c r="E23">
-        <v>1.057497593393822</v>
+        <v>0.9992664159577788</v>
       </c>
       <c r="F23">
-        <v>1.066046839459527</v>
+        <v>1.007576699055564</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046327907658462</v>
+        <v>1.04230124005613</v>
       </c>
       <c r="J23">
-        <v>1.056332113663102</v>
+        <v>1.026626322665332</v>
       </c>
       <c r="K23">
-        <v>1.054941690345303</v>
+        <v>1.030894918623497</v>
       </c>
       <c r="L23">
-        <v>1.061058802174035</v>
+        <v>1.014539270502544</v>
       </c>
       <c r="M23">
-        <v>1.069577368843057</v>
+        <v>1.022690170154776</v>
       </c>
       <c r="N23">
-        <v>1.057832226427491</v>
+        <v>1.028084249799201</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051526388038971</v>
+        <v>1.006651725236885</v>
       </c>
       <c r="D24">
-        <v>1.052761929256557</v>
+        <v>1.023813764146922</v>
       </c>
       <c r="E24">
-        <v>1.059315938622476</v>
+        <v>1.008637388571518</v>
       </c>
       <c r="F24">
-        <v>1.067954993748794</v>
+        <v>1.017514130067801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046906278752771</v>
+        <v>1.046204224297218</v>
       </c>
       <c r="J24">
-        <v>1.05761331326272</v>
+        <v>1.033896105107708</v>
       </c>
       <c r="K24">
-        <v>1.05607452087776</v>
+        <v>1.037435202769442</v>
       </c>
       <c r="L24">
-        <v>1.062606602289058</v>
+        <v>1.022514501045958</v>
       </c>
       <c r="M24">
-        <v>1.071217204318989</v>
+        <v>1.031240503867806</v>
       </c>
       <c r="N24">
-        <v>1.059115245477495</v>
+        <v>1.035364356166501</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053607165946388</v>
+        <v>1.017934042579931</v>
       </c>
       <c r="D25">
-        <v>1.05438836521949</v>
+        <v>1.032493919772911</v>
       </c>
       <c r="E25">
-        <v>1.061427625785764</v>
+        <v>1.019007813920943</v>
       </c>
       <c r="F25">
-        <v>1.070170560085693</v>
+        <v>1.028500707273996</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047570644850865</v>
+        <v>1.050455366200983</v>
       </c>
       <c r="J25">
-        <v>1.059094846430591</v>
+        <v>1.041872569635541</v>
       </c>
       <c r="K25">
-        <v>1.057383600014091</v>
+        <v>1.044607913605415</v>
       </c>
       <c r="L25">
-        <v>1.064401734477293</v>
+        <v>1.031318053658056</v>
       </c>
       <c r="M25">
-        <v>1.073118850729386</v>
+        <v>1.04067212948169</v>
       </c>
       <c r="N25">
-        <v>1.060598882592399</v>
+        <v>1.043352148188878</v>
       </c>
     </row>
   </sheetData>
